--- a/biology/Botanique/Flore_de_l'espace_Caraïbe/Flore_de_l'espace_Caraïbe.xlsx
+++ b/biology/Botanique/Flore_de_l'espace_Caraïbe/Flore_de_l'espace_Caraïbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_de_l%27espace_Cara%C3%AFbe</t>
+          <t>Flore_de_l'espace_Caraïbe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste les végétaux que l'on peut trouver dans l'espace Caraïbe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_de_l%27espace_Cara%C3%AFbe</t>
+          <t>Flore_de_l'espace_Caraïbe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Palmiers et Cycadales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bayal
 Brahéa doux
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flore_de_l%27espace_Cara%C3%AFbe</t>
+          <t>Flore_de_l'espace_Caraïbe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +575,9 @@
           <t>Arbres et arbustes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aki (fruit)
 Abricotier des Antilles
@@ -623,7 +639,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flore_de_l%27espace_Cara%C3%AFbe</t>
+          <t>Flore_de_l'espace_Caraïbe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -641,7 +657,9 @@
           <t>Lianes et plantes grimpantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ayote
 Barbadine
@@ -662,7 +680,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Flore_de_l%27espace_Cara%C3%AFbe</t>
+          <t>Flore_de_l'espace_Caraïbe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -680,7 +698,9 @@
           <t>Plantes du littoral</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Amandier-pays
 Mancenillier
@@ -695,7 +715,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flore_de_l%27espace_Cara%C3%AFbe</t>
+          <t>Flore_de_l'espace_Caraïbe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -713,7 +733,9 @@
           <t>Vivaces et graminées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Alpinia
 Balisier
@@ -734,7 +756,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flore_de_l%27espace_Cara%C3%AFbe</t>
+          <t>Flore_de_l'espace_Caraïbe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -752,7 +774,9 @@
           <t>Cactées et succulentes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Agave
 Agave américain
@@ -771,7 +795,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flore_de_l%27espace_Cara%C3%AFbe</t>
+          <t>Flore_de_l'espace_Caraïbe</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +813,9 @@
           <t>Orchidées, épiphytes et fougères</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Cattleya
 Encyclia
@@ -809,7 +835,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Flore_de_l%27espace_Cara%C3%AFbe</t>
+          <t>Flore_de_l'espace_Caraïbe</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,7 +853,9 @@
           <t>Broméliacées</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Ananas
 Bilbergie
@@ -846,7 +874,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Flore_de_l%27espace_Cara%C3%AFbe</t>
+          <t>Flore_de_l'espace_Caraïbe</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -864,7 +892,9 @@
           <t>Héliconias et balisiers</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Balisier bihaï
 Balisier des Caraïbes
